--- a/Control Front End.xlsx
+++ b/Control Front End.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="3" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="325" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="325" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Project Information" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>Project Information.</t>
   </si>
@@ -83,10 +83,16 @@
     <t>Control switches to determine if some solubilities are used or not.</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>Mixed Solvents systems</t>
+  </si>
+  <si>
+    <t>Simon's real solubility measuements.</t>
+  </si>
+  <si>
+    <t>The AZ compound referenced in the spreadsheet is the racemate of AZ13530968.  It this latter compound that should be used in the COSMOtherm calculations.</t>
+  </si>
+  <si>
+    <t>Source: E17-001679-AZD3293-AZ13530938-310117-Iteration 1.xlsx</t>
   </si>
   <si>
     <t>Prediction Solvents</t>
@@ -191,7 +197,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
@@ -204,6 +210,13 @@
       <right style="thick"/>
       <top style="thick"/>
       <bottom style="thick"/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -232,7 +245,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -249,7 +262,7 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="6" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -257,7 +270,15 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="2" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -281,7 +302,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B8" activeCellId="0" pane="topLeft" sqref="B8"/>
+      <selection activeCell="B8" activeCellId="0" pane="topLeft" sqref="A3:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -380,10 +401,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A3" activeCellId="0" pane="topLeft" sqref="A3"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A3" activeCellId="0" pane="topLeft" sqref="A3:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -405,7 +426,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="3">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -425,277 +446,296 @@
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
-      <c r="A4" s="2" t="n">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="4">
+      <c r="A4" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6" t="n">
-        <v>32.95</v>
-      </c>
-      <c r="D4" s="6" t="n">
-        <v>32.83</v>
-      </c>
-      <c r="E4" s="6" t="n">
-        <v>33.52</v>
-      </c>
+      <c r="B4" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="C4" s="7" t="n">
+        <v>21.84</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
       <c r="G4" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
-      <c r="A5" s="2" t="n">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="5">
+      <c r="A5" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" s="6" t="n">
-        <v>50.52</v>
-      </c>
-      <c r="D5" s="6" t="n">
-        <v>50.12</v>
-      </c>
-      <c r="E5" s="6" t="n">
-        <v>50.28</v>
-      </c>
+      <c r="B5" s="6" t="n">
+        <v>29</v>
+      </c>
+      <c r="C5" s="7" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
       <c r="G5" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
-      <c r="A6" s="2" t="n">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="6">
+      <c r="A6" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" s="6" t="n">
-        <v>114.63</v>
-      </c>
-      <c r="D6" s="6" t="n">
-        <v>108.08</v>
-      </c>
-      <c r="E6" s="6" t="n">
-        <v>109.24</v>
-      </c>
+      <c r="B6" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="C6" s="7" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
       <c r="G6" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
-      <c r="A7" s="2" t="n">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="7">
+      <c r="A7" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="6" t="n">
+        <v>39</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>44.37</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="8">
+      <c r="A8" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="B8" s="6" t="n">
+        <v>41</v>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="9">
+      <c r="A9" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6" t="n">
+        <v>42</v>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="10">
+      <c r="A10" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="G10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="2" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="11">
+      <c r="A11" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="n">
+        <v>55</v>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="G11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="12">
+      <c r="A12" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B12" s="6" t="n">
+        <v>61</v>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>18.83</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="G12" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="13">
+      <c r="A13" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6" t="n">
+        <v>65</v>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>38.55</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="G13" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="14">
+      <c r="A14" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="B14" s="6" t="n">
+        <v>66</v>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="15">
+      <c r="A15" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="B15" s="6" t="n">
+        <v>75</v>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="16">
+      <c r="A16" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="B16" s="6" t="n">
+        <v>80</v>
+      </c>
+      <c r="C16" s="6" t="n">
+        <v>22.16</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="17">
+      <c r="A17" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="B17" s="6" t="n">
+        <v>104</v>
+      </c>
+      <c r="C17" s="6" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="18">
+      <c r="A18" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="B18" s="6" t="n">
+        <v>108</v>
+      </c>
+      <c r="C18" s="6" t="n">
+        <v>31.79</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="19">
+      <c r="A19" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="B19" s="6" t="n">
+        <v>110</v>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="20">
+      <c r="A20" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="B20" s="6" t="n">
+        <v>116</v>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="21">
+      <c r="A21" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="B21" s="6" t="n">
+        <v>124</v>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>35.64</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="22">
+      <c r="A22" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="23">
+      <c r="A23" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="24">
+      <c r="A24" s="6" t="n">
         <v>21</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
-      <c r="A8" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="C8" s="6" t="n">
-        <v>4.92</v>
-      </c>
-      <c r="D8" s="6" t="n">
-        <v>4.88</v>
-      </c>
-      <c r="E8" s="6" t="n">
-        <v>4.95</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
-      <c r="A9" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="C9" s="6" t="n">
-        <v>85.4</v>
-      </c>
-      <c r="D9" s="6" t="n">
-        <v>84.01</v>
-      </c>
-      <c r="E9" s="6" t="n">
-        <v>85.75</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
-      <c r="A10" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="C10" s="6" t="n">
-        <v>87.43</v>
-      </c>
-      <c r="D10" s="6" t="n">
-        <v>86.33</v>
-      </c>
-      <c r="E10" s="6" t="n">
-        <v>88.09</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="25">
+      <c r="A25" s="6" t="n">
         <v>22</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
-      <c r="A11" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>78</v>
-      </c>
-      <c r="C11" s="6" t="n">
-        <v>63.01</v>
-      </c>
-      <c r="D11" s="6" t="n">
-        <v>59.99</v>
-      </c>
-      <c r="E11" s="6" t="n">
-        <v>60.86</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12">
-      <c r="A12" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>101</v>
-      </c>
-      <c r="C12" s="6" t="n">
-        <v>17.16</v>
-      </c>
-      <c r="D12" s="6" t="n">
-        <v>15.79</v>
-      </c>
-      <c r="E12" s="6" t="n">
-        <v>17.47</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
-      <c r="A13" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>123</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="14">
-      <c r="A14" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="15">
-      <c r="A15" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
-      <c r="A16" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="17">
-      <c r="A17" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
-      <c r="A18" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
-      <c r="A19" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
-      <c r="A20" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21">
-      <c r="A21" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
-      <c r="A22" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="23">
-      <c r="A23" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -719,7 +759,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D7" activeCellId="0" pane="topLeft" sqref="D7"/>
+      <selection activeCell="D7" activeCellId="0" pane="topLeft" sqref="A3:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -732,19 +772,19 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.75" outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
@@ -753,7 +793,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
@@ -762,7 +802,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
@@ -771,7 +811,7 @@
         <v>35</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
@@ -863,8 +903,8 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A5" activeCellId="0" pane="topLeft" sqref="A5"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A5" activeCellId="0" pane="topLeft" sqref="A3:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -875,43 +915,43 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.75" outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
       <c r="A4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="5">
       <c r="A5" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5" s="3"/>
     </row>
